--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,80 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15h26</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4h</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Assez stressé(e)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Compétent</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2 ans</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Légèrement passionné(e)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Très bruyant</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>test55555</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milio\PycharmProjects\Stage2024\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD769A-424B-42D8-90C2-72E9C53CF57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88A016-07FD-45C2-8E27-8FB19CDE2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milio\PycharmProjects\Stage2024\Sources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88A016-07FD-45C2-8E27-8FB19CDE2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>N_Ano</t>
-  </si>
-  <si>
-    <t>Heure</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Sommeil</t>
-  </si>
-  <si>
-    <t>Troubles du sommeil</t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
-  <si>
-    <t>Caféine</t>
-  </si>
-  <si>
-    <t>Quantité de caféine</t>
-  </si>
-  <si>
-    <t>Nicotine</t>
-  </si>
-  <si>
-    <t>Quantité de nicotine</t>
-  </si>
-  <si>
-    <t>Maîtrise de l'informatique</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>Passion</t>
-  </si>
-  <si>
-    <t>Bruit</t>
-  </si>
-  <si>
-    <t>Tâche</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,63 +420,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>N_Ano</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Heure</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sommeil</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stress</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Caféine</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantité de caféine</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nicotine</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Quantité de nicotine</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Maîtrise de l'informatique</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Passion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Bruit</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Tâche</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22h28</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Femme</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nuit blanche</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Assez stressé(e)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Très compétent(e)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Légèrement passionné(e)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Assez bruyant</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milio\PycharmProjects\Stage2024\Sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0C660-69F4-418A-8A5A-08D8B25CDFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>N_Ano</t>
+  </si>
+  <si>
+    <t>Heure</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Sommeil</t>
+  </si>
+  <si>
+    <t>Troubles du sommeil</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Caféine</t>
+  </si>
+  <si>
+    <t>Quantité de caféine</t>
+  </si>
+  <si>
+    <t>Nicotine</t>
+  </si>
+  <si>
+    <t>Quantité de nicotine</t>
+  </si>
+  <si>
+    <t>Maîtrise de l'informatique</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Passion</t>
+  </si>
+  <si>
+    <t>Bruit</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +429,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N_Ano</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Heure</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Genre</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sommeil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Troubles du sommeil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Stress</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Caféine</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Quantité de caféine</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Nicotine</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Quantité de nicotine</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Maîtrise de l'informatique</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Experience</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Passion</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Bruit</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tâche</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22h28</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Femme</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Nuit blanche</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Assez stressé(e)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Très compétent(e)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3 ans</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Légèrement passionné(e)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Assez bruyant</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milio\PycharmProjects\Stage2024\Sources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0C660-69F4-418A-8A5A-08D8B25CDFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>N_Ano</t>
-  </si>
-  <si>
-    <t>Heure</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Sommeil</t>
-  </si>
-  <si>
-    <t>Troubles du sommeil</t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
-  <si>
-    <t>Caféine</t>
-  </si>
-  <si>
-    <t>Quantité de caféine</t>
-  </si>
-  <si>
-    <t>Nicotine</t>
-  </si>
-  <si>
-    <t>Quantité de nicotine</t>
-  </si>
-  <si>
-    <t>Maîtrise de l'informatique</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>Passion</t>
-  </si>
-  <si>
-    <t>Bruit</t>
-  </si>
-  <si>
-    <t>Tâche</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,63 +420,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>N_Ano</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Heure</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sommeil</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stress</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Caféine</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantité de caféine</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nicotine</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Quantité de nicotine</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Maîtrise de l'informatique</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Passion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Bruit</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Tâche</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13h00</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Femme</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5h</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sans stress</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Moyen</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2 ans</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Pas du tout passionné(e)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Pas du tout bruyant</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bureautique : Word, Excel.. </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -552,10 +552,8 @@
           <t>Oui</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="I2" t="n">
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -590,6 +588,46 @@
           <t xml:space="preserve">Bureautique : Word, Excel.. </t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,126 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +749,286 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +1029,126 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1149,6 +1149,26 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,6 +1169,86 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sources/info_participants.xlsx
+++ b/Sources/info_participants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1249,106 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
